--- a/比特直播课/比特直播课讲义/笔记-数据结构/2024_10_8 2.顺序表.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-数据结构/2024_10_8 2.顺序表.xlsx
@@ -11,8 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -104,6 +108,44 @@
         <a:xfrm>
           <a:off x="466725" y="390525"/>
           <a:ext cx="8695238" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>560996</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>27964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="4400550"/>
+          <a:ext cx="7828571" cy="4885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -405,7 +447,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
